--- a/dados/dados_brutos_transformados_Original.xlsx
+++ b/dados/dados_brutos_transformados_Original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpalbino/Library/Mobile Documents/com~apple~CloudDocs/GitHub/espaco-virtual-e-geracoes/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE982F-4BE2-D343-B096-5CA9B0E27132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7D8B8E-610C-204F-8881-70A66472549B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42900" yWindow="3380" windowWidth="24300" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42900" yWindow="3360" windowWidth="24300" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13184" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13185" uniqueCount="588">
   <si>
     <t>...1</t>
   </si>
@@ -24418,8 +24418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3987513-5F54-B14D-8442-2B071914DF30}">
   <dimension ref="A1:F1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F203"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="F1335" sqref="F1335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47593,8 +47593,8 @@
         <v>7</v>
       </c>
       <c r="E1335" s="2"/>
-      <c r="F1335" s="2" t="s">
-        <v>479</v>
+      <c r="F1335" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="1336" spans="1:6" x14ac:dyDescent="0.2">
@@ -47780,17 +47780,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAED0B4-0C27-D24F-BB79-DCF57B537619}">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -47805,14 +47803,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -47821,12 +47819,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -47836,7 +47834,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -47846,17 +47844,17 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -47871,12 +47869,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -47886,12 +47884,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -47901,12 +47899,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -47916,17 +47914,17 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
@@ -47936,32 +47934,32 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -47971,42 +47969,42 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
@@ -48016,27 +48014,27 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
@@ -48046,57 +48044,57 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
@@ -48106,12 +48104,12 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -48121,7 +48119,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
@@ -48131,12 +48129,12 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
@@ -48156,7 +48154,7 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
@@ -48166,17 +48164,17 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
@@ -48191,17 +48189,17 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
@@ -48216,7 +48214,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
@@ -48226,22 +48224,22 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -48256,27 +48254,27 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
@@ -48301,22 +48299,22 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
@@ -48341,37 +48339,37 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
@@ -48386,7 +48384,7 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
@@ -48396,12 +48394,12 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
@@ -48416,17 +48414,17 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
@@ -48436,12 +48434,12 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
@@ -48451,32 +48449,32 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -48491,22 +48489,22 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
@@ -48516,17 +48514,17 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
@@ -48536,7 +48534,7 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
@@ -48546,12 +48544,12 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
@@ -48566,27 +48564,27 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
@@ -48601,52 +48599,52 @@
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
@@ -48656,40 +48654,45 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C183" s="2"/>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:E179">
-    <sortCondition ref="E1:E179"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E180">
+    <sortCondition ref="E2:E180"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
